--- a/Documentation/Lager.xlsx
+++ b/Documentation/Lager.xlsx
@@ -590,7 +590,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
